--- a/data/california/raw/sample_type_key_bivalve_psp.xlsx
+++ b/data/california/raw/sample_type_key_bivalve_psp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_biotoxin_depuration/data/california/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A0258C-CC80-A44B-827A-9A26F3B7BF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E4F006-368C-7647-8B51-48B38BC393F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{0F3D673D-FAA6-DC41-ABF1-6FB7C10EE479}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t xml:space="preserve">Basket Cockle                  </t>
   </si>
@@ -218,9 +218,6 @@
     <t>siphon</t>
   </si>
   <si>
-    <t>fat</t>
-  </si>
-  <si>
     <t>Unidentified clam</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>Unidentified oyster</t>
+  </si>
+  <si>
+    <t>Fat gaper clam</t>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6C2B1C-4035-1243-85A8-D909AAD610C4}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>54</v>
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -917,10 +917,7 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -944,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -952,7 +949,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -960,7 +957,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
